--- a/expedia/templates/BMC/BMC2/EXPORT RT&RP Cloud Export_Clone.xlsx
+++ b/expedia/templates/BMC/BMC2/EXPORT RT&RP Cloud Export_Clone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\github-repositories\core_ota\Expedia Templates\BMC\BMC2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/Dev/workspace/expedia/templates/BMC/BMC2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F60A91-D681-47E9-9478-A4E69D0B0795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EF10E3-D052-2F4D-A330-E66B9EBC355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="5550" windowWidth="24300" windowHeight="14790" xr2:uid="{2547B3A6-92DE-4DC7-BA33-295CE429FBF9}"/>
+    <workbookView xWindow="7000" yWindow="5560" windowWidth="24300" windowHeight="14800" xr2:uid="{2547B3A6-92DE-4DC7-BA33-295CE429FBF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -192,6 +192,36 @@
   </si>
   <si>
     <t>Rate Plan Pricing Model</t>
+  </si>
+  <si>
+    <t>124966837</t>
+  </si>
+  <si>
+    <t>124966838</t>
+  </si>
+  <si>
+    <t>124966839</t>
+  </si>
+  <si>
+    <t>124966840</t>
+  </si>
+  <si>
+    <t>124966841</t>
+  </si>
+  <si>
+    <t>124966842</t>
+  </si>
+  <si>
+    <t>124966843</t>
+  </si>
+  <si>
+    <t>124966844</t>
+  </si>
+  <si>
+    <t>124966845</t>
+  </si>
+  <si>
+    <t>124966846</t>
   </si>
 </sst>
 </file>
@@ -320,9 +350,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -360,7 +390,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -466,7 +496,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -608,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -619,61 +649,61 @@
   <dimension ref="A1:BA48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.5" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="29" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="8.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="20" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="17" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="20" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="18" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,150 +862,174 @@
       </c>
       <c r="BA1" s="5"/>
     </row>
-    <row r="2" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-    </row>
-    <row r="4" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-    </row>
-    <row r="5" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-    </row>
-    <row r="8" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-    </row>
-    <row r="9" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-    </row>
-    <row r="10" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
     </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
     </row>
-    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
     </row>
-    <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
     </row>
-    <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{03ef5274-90b8-4b3f-8a76-b4c36a43e904}" enabled="1" method="Standard" siteId="{61e6eeb3-5fd7-4aaa-ae3c-61e8deb09b79}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>